--- a/Sistema-Videos.xlsx
+++ b/Sistema-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297AB58C-2A14-40A1-8734-E982ED80864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6553443C-D287-4179-918A-5AA4C259425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -866,8 +866,8 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19:G21"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1332,7 +1332,9 @@
       <c r="F19" s="10">
         <v>44401</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="22">
+        <v>44827</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
@@ -1354,7 +1356,9 @@
       <c r="F20" s="10">
         <v>44401</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="22">
+        <v>44827</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
@@ -1376,7 +1380,9 @@
       <c r="F21" s="10">
         <v>44401</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="22">
+        <v>44827</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
